--- a/pred_ohlcv/54_21/2020-01-16 VALOR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 VALOR ohlcv.xlsx
@@ -678,7 +678,7 @@
         <v>-70071.91739126337</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-70071.91739126337</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-66918.89840885597</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-58731.60440885596</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-59983.13290885597</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-60766.99920885597</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-118773.1842134856</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-119789.3176134856</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-119789.3176134856</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-125028.6616134856</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-121418.3316134856</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-121418.3316134856</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-121418.3316134856</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-98222.5048134856</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-98219.5048134856</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-98114.3175134856</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-98114.3175134856</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-98114.3175134856</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-102114.3175134856</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-101701.0175134856</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-101701.0175134856</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-101701.0175134856</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-97459.6131134856</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-97270.2869134856</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-76594.25581348559</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-71302.89711348558</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-70499.04811348558</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-73059.04811348558</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-78455.24541348558</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-78103.89981348556</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-120445.3945134855</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-119639.4937134855</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-119803.5937134855</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-120259.3079134856</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-115954.8161134855</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-124661.0637134855</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-129434.5338134855</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-125130.0420134855</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-125120.0420134855</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-145288.804295567</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-133600.201895567</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-131337.935895567</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-138282.166595567</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-134146.934195567</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-135252.596095567</v>
       </c>
       <c r="H185">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-135252.596095567</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-133106.596095567</v>
       </c>
       <c r="H187">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-133106.596095567</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-117083.6603157505</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-77965.42711575051</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-84925.38551575052</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-84026.61291575052</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-79490.90831575052</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-79499.90831575052</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-78601.13571575053</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-78601.13571575053</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-78601.13571575053</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-16 VALOR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 VALOR ohlcv.xlsx
@@ -678,7 +678,7 @@
         <v>-70071.91739126337</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-70071.91739126337</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-66918.89840885597</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-58731.60440885596</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-59983.13290885597</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-60766.99920885597</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-118773.1842134856</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-119789.3176134856</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-119789.3176134856</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-125028.6616134856</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-121418.3316134856</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-121418.3316134856</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-98222.5048134856</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-98219.5048134856</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-98114.3175134856</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-98114.3175134856</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-98114.3175134856</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-102114.3175134856</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-101701.0175134856</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-101701.0175134856</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-101701.0175134856</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-97459.6131134856</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-97270.2869134856</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-76594.25581348559</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-62850.96221348559</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-63682.35201348559</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-63682.35201348559</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-71302.89711348558</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-71302.89711348558</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-70499.04811348558</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-73059.04811348558</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-120445.3945134855</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-119639.4937134855</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-119803.5937134855</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-120259.3079134856</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-115954.8161134855</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-124661.0637134855</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-129434.5338134855</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-125130.0420134855</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-125120.0420134855</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-145288.804295567</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-139444.358495567</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-132515.201895567</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-133600.201895567</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-131337.935895567</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-125471.709395567</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-125608.937695567</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-131234.438795567</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-131229.271595567</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-138282.166595567</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-138282.166595567</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-138282.166595567</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-138282.166595567</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-134146.934195567</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-135252.596095567</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-135252.596095567</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-133106.596095567</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-133106.596095567</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-133106.596095567</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-118533.6603157505</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-118533.6603157505</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-117497.4796157505</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-77965.42711575051</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-84925.38551575052</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-84925.38551575052</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-84026.61291575052</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-79490.90831575052</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-79499.90831575052</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-78601.13571575053</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-78601.13571575053</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-78601.13571575053</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
